--- a/l3 8到24指令/实验/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
+++ b/l3 8到24指令/实验/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11190"/>
+    <workbookView windowWidth="24750" windowHeight="11190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
     <sheet name="控制信号表达式生成" sheetId="2" r:id="rId2"/>
     <sheet name="运算器规格" sheetId="3" r:id="rId3"/>
     <sheet name="控制信号产生条件" sheetId="5" r:id="rId4"/>
+    <sheet name="拼接" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AJ$36</definedName>
@@ -2471,8 +2472,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5067,9 +5068,13 @@
       <c r="U24" s="63">
         <v>5</v>
       </c>
-      <c r="V24" s="64"/>
+      <c r="V24" s="64">
+        <v>1</v>
+      </c>
       <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
+      <c r="X24" s="64">
+        <v>1</v>
+      </c>
       <c r="Y24" s="64">
         <v>1</v>
       </c>
@@ -8765,10 +8770,10 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -12868,7 +12873,7 @@
       </c>
       <c r="U24" s="38" t="str">
         <f>IF(真值表!V24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="V24" s="38" t="str">
         <f>IF(真值表!W24=1,$P24&amp;"+","")</f>
@@ -12876,7 +12881,7 @@
       </c>
       <c r="W24" s="38" t="str">
         <f>IF(真值表!X24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="X24" s="38" t="str">
         <f>IF(真值表!Y24=1,$P24&amp;"+","")</f>
@@ -19434,7 +19439,7 @@
       </c>
       <c r="U62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="V62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19442,7 +19447,7 @@
       </c>
       <c r="W62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="X62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19544,7 +19549,7 @@
       </c>
       <c r="U63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
@@ -19552,7 +19557,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="2"/>
@@ -19738,7 +19743,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -19917,7 +19922,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
@@ -20126,6 +20131,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -20139,6 +20160,7 @@
   <rangeList sheetStid="2" master="" otherUserPermission="visible"/>
   <rangeList sheetStid="3" master="" otherUserPermission="visible"/>
   <rangeList sheetStid="5" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="6" master="" otherUserPermission="visible"/>
 </allowEditUser>
 </file>
 
